--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-310280.0989688073</v>
+        <v>-314419.8053827638</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11986839.23220153</v>
+        <v>11983889.33524944</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>183.9982213541832</v>
+        <v>110.5151501914676</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -719,13 +719,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>123.6176016258943</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>50.6435372072235</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>78.03010452925137</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>253.8243076884218</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.78203161658816</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>294.1140878942845</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.5248520122631</v>
       </c>
       <c r="G6" t="n">
-        <v>69.9893010461506</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>120.5041124423103</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>76.74086563202137</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1148,10 +1148,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>141.1649206712457</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>93.15648538984163</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>86.64940239199029</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>256.4561542453789</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
@@ -1379,16 +1379,16 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372783</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362796</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>49.79845747110423</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>234.8656199178705</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993869</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465753</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442479</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681693</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>33.16819100553776</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901682</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>35.822638531686</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>75.79955572800314</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372783</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362796</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>106.4741046921189</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442479</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681693</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338897</v>
+        <v>71.17630984635142</v>
       </c>
       <c r="I16" t="n">
-        <v>19.7571946181785</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901682</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187162</v>
@@ -1822,13 +1822,13 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.17382596574976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973564988</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.5760187316782</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.72314698196061</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380034</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.22330424667945</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.97275566644672</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883885</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541089</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658282</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.882059701038742</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.00800320656606</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1035.690705650471</v>
+        <v>1362.056493488727</v>
       </c>
       <c r="C2" t="n">
-        <v>642.5152041534016</v>
+        <v>968.8809919916571</v>
       </c>
       <c r="D2" t="n">
-        <v>642.5152041534016</v>
+        <v>968.8809919916571</v>
       </c>
       <c r="E2" t="n">
-        <v>642.5152041534016</v>
+        <v>566.2974671082015</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>773.3325661833825</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059666</v>
+        <v>773.3325661833825</v>
       </c>
       <c r="N2" t="n">
-        <v>1826.595477606226</v>
+        <v>1286.93524479307</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606226</v>
+        <v>1726.974845685399</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="V2" t="n">
-        <v>1832.676160441267</v>
+        <v>1733.055528520439</v>
       </c>
       <c r="W2" t="n">
-        <v>1832.676160441267</v>
+        <v>1362.056493488727</v>
       </c>
       <c r="X2" t="n">
-        <v>1832.676160441267</v>
+        <v>1362.056493488727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1436.185451361868</v>
+        <v>1362.056493488727</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L3" t="n">
-        <v>476.3497876767088</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M3" t="n">
-        <v>1014.608572686801</v>
+        <v>1471.526139546293</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.79650946646</v>
+        <v>1985.128818155981</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.79650946646</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S3" t="n">
-        <v>2025.999662367233</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475497</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475497</v>
+        <v>864.1319818946067</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475497</v>
+        <v>708.4988687971215</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475497</v>
+        <v>552.940056656324</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475497</v>
+        <v>395.6141218692969</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475497</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>585.3226407371185</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>299.8838489790194</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>43.49565939475497</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>43.49565939475497</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X4" t="n">
-        <v>43.49565939475497</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475497</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1335.973020717819</v>
+        <v>360.5645699245034</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.973020717819</v>
+        <v>63.47963265754937</v>
       </c>
       <c r="D5" t="n">
-        <v>1335.973020717819</v>
+        <v>63.47963265754937</v>
       </c>
       <c r="E5" t="n">
-        <v>1335.973020717819</v>
+        <v>63.47963265754937</v>
       </c>
       <c r="F5" t="n">
-        <v>919.0785822477964</v>
+        <v>50.62559822793119</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357995</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>135.6402479253949</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K5" t="n">
-        <v>135.6402479253949</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L5" t="n">
-        <v>135.6402479253949</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354875</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.71031657295</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.269414678799</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="T5" t="n">
-        <v>1784.768812238216</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="U5" t="n">
-        <v>1784.768812238216</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="V5" t="n">
-        <v>1784.768812238216</v>
+        <v>1528.549059747012</v>
       </c>
       <c r="W5" t="n">
-        <v>1784.768812238216</v>
+        <v>1157.550024715299</v>
       </c>
       <c r="X5" t="n">
-        <v>1784.768812238216</v>
+        <v>1157.550024715299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1388.278103158817</v>
+        <v>761.0593156359002</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021433</v>
+        <v>556.1927859813156</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622355</v>
+        <v>405.5385555414078</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837159</v>
+        <v>275.4495881628882</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946036</v>
+        <v>139.0030972737759</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777354</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>1471.526139546293</v>
       </c>
       <c r="N6" t="n">
-        <v>1534.79650946646</v>
+        <v>1985.128818155981</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.79650946646</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917586</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675974</v>
+        <v>887.3033373467697</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431047</v>
+        <v>707.989120422277</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>363.8493091685108</v>
+        <v>680.226224715659</v>
       </c>
       <c r="C7" t="n">
-        <v>242.1279834692075</v>
+        <v>510.0211067816482</v>
       </c>
       <c r="D7" t="n">
-        <v>242.1279834692075</v>
+        <v>354.387993684163</v>
       </c>
       <c r="E7" t="n">
-        <v>242.1279834692075</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="F7" t="n">
-        <v>242.1279834692075</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>821.0416925688844</v>
+        <v>865.4342434069603</v>
       </c>
       <c r="V7" t="n">
-        <v>821.0416925688844</v>
+        <v>865.4342434069603</v>
       </c>
       <c r="W7" t="n">
-        <v>821.0416925688844</v>
+        <v>865.4342434069603</v>
       </c>
       <c r="X7" t="n">
-        <v>586.9613703518675</v>
+        <v>865.4342434069603</v>
       </c>
       <c r="Y7" t="n">
-        <v>363.8493091685108</v>
+        <v>865.4342434069603</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.544517927872</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.544517927872</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.544517927872</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="E8" t="n">
-        <v>1019.960993044417</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F8" t="n">
-        <v>603.0665545743947</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>189.9037990623978</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4814,13 +4814,13 @@
         <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1832.61545280471</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2233.558131372963</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2010.05752893238</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1754.304799366978</v>
       </c>
       <c r="V8" t="n">
-        <v>1819.035227007271</v>
+        <v>1412.197990070497</v>
       </c>
       <c r="W8" t="n">
-        <v>1819.035227007271</v>
+        <v>1412.197990070497</v>
       </c>
       <c r="X8" t="n">
-        <v>1819.035227007271</v>
+        <v>1412.197990070497</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.544517927872</v>
+        <v>1015.707280991098</v>
       </c>
     </row>
     <row r="9">
@@ -4890,7 +4890,7 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="W10" t="n">
-        <v>689.7133721932184</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="X10" t="n">
-        <v>455.6330499762015</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.5209887928449</v>
+        <v>534.5182705774242</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1467.291089243225</v>
+        <v>1719.577864530541</v>
       </c>
       <c r="C11" t="n">
-        <v>1145.91186289235</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550882</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312599</v>
+        <v>722.3132251185757</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654569</v>
+        <v>380.9467447527727</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411573</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2960.937633099986</v>
       </c>
       <c r="V11" t="n">
-        <v>2675.578323579424</v>
+        <v>2690.627098949698</v>
       </c>
       <c r="W11" t="n">
-        <v>2438.340323662383</v>
+        <v>2690.627098949698</v>
       </c>
       <c r="X11" t="n">
-        <v>2120.683993741633</v>
+        <v>2372.970769028949</v>
       </c>
       <c r="Y11" t="n">
-        <v>1795.989559808428</v>
+        <v>2048.276335095744</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>175.2341099238429</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>803.0057595505241</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2208.713496756216</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>459.7811691196466</v>
+        <v>474.9551552953887</v>
       </c>
       <c r="C13" t="n">
-        <v>361.3723263318298</v>
+        <v>376.5463125075719</v>
       </c>
       <c r="D13" t="n">
-        <v>361.3723263318298</v>
+        <v>292.7094745562806</v>
       </c>
       <c r="E13" t="n">
-        <v>277.6097893372262</v>
+        <v>208.9469375616769</v>
       </c>
       <c r="F13" t="n">
-        <v>192.080129696393</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="G13" t="n">
-        <v>95.62235094203245</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581892</v>
@@ -5206,16 +5206,16 @@
         <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138165</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173673</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814508</v>
@@ -5230,19 +5230,19 @@
         <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245452</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="V13" t="n">
-        <v>936.0428256245452</v>
+        <v>1113.50085887111</v>
       </c>
       <c r="W13" t="n">
-        <v>724.5086987019167</v>
+        <v>901.966731948482</v>
       </c>
       <c r="X13" t="n">
-        <v>724.5086987019167</v>
+        <v>739.682684877659</v>
       </c>
       <c r="Y13" t="n">
-        <v>573.192912664754</v>
+        <v>588.3668988404961</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1788.408699622867</v>
+        <v>1780.935942880363</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816803</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1145.911862892349</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442403</v>
+        <v>815.1246131550878</v>
       </c>
       <c r="F14" t="n">
-        <v>722.313225118575</v>
+        <v>470.0264498312595</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5276,10 +5276,10 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J14" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579423</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543617</v>
+        <v>2751.98517729952</v>
       </c>
       <c r="X14" t="n">
-        <v>1788.408699622867</v>
+        <v>2434.328847378771</v>
       </c>
       <c r="Y14" t="n">
-        <v>1788.408699622867</v>
+        <v>2109.634413445566</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.7456042322054</v>
+        <v>463.0135798151593</v>
       </c>
       <c r="C16" t="n">
-        <v>347.7456042322054</v>
+        <v>364.6047370273424</v>
       </c>
       <c r="D16" t="n">
-        <v>347.7456042322054</v>
+        <v>364.6047370273424</v>
       </c>
       <c r="E16" t="n">
-        <v>347.7456042322054</v>
+        <v>280.8422000327388</v>
       </c>
       <c r="F16" t="n">
-        <v>262.2159445913724</v>
+        <v>195.3125403919057</v>
       </c>
       <c r="G16" t="n">
-        <v>165.7581658370116</v>
+        <v>195.3125403919057</v>
       </c>
       <c r="H16" t="n">
-        <v>82.07588994469987</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411552</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593279</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907707</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295801</v>
+        <v>988.1475398457736</v>
       </c>
       <c r="V16" t="n">
-        <v>872.8795642628196</v>
+        <v>988.1475398457736</v>
       </c>
       <c r="W16" t="n">
-        <v>661.3454373401912</v>
+        <v>776.6134129231451</v>
       </c>
       <c r="X16" t="n">
-        <v>499.0613902693682</v>
+        <v>614.3293658523221</v>
       </c>
       <c r="Y16" t="n">
-        <v>347.7456042322054</v>
+        <v>463.0135798151593</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975446</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803427</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924184</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411552</v>
@@ -5552,10 +5552,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5671,13 +5671,13 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411552</v>
+        <v>67.69877031229842</v>
       </c>
       <c r="K19" t="n">
-        <v>273.010538436486</v>
+        <v>149.5338114222403</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184686</v>
+        <v>313.6614512960401</v>
       </c>
       <c r="M19" t="n">
         <v>629.0093992567326</v>
@@ -5735,13 +5735,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
         <v>68.7795079292422</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5908,28 +5908,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229885</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5981,43 +5981,43 @@
         <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129431</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404048</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358933</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064826</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
         <v>2855.219708188067</v>
@@ -6051,10 +6051,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6063,13 +6063,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860693</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
         <v>978.5393418843826</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072664</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.1191277041155</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102857</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3483.397387236564</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985348</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
@@ -6373,25 +6373,25 @@
         <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6406,7 +6406,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
@@ -6418,16 +6418,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286445</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6464,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2602.118932483141</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3483.397387236565</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>323.8570290861561</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>794.4915056886009</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1287.81179740713</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.722335423631</v>
+        <v>2361.623981089173</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.03502904303</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901622</v>
+        <v>3192.911219976305</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076163</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.671367692971</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.3853606404856</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245256</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652534</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597517</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.73045008374187</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803362</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>391.009579354136</v>
+        <v>313.5178165860867</v>
       </c>
       <c r="M34" t="n">
-        <v>682.5742504194702</v>
+        <v>499.8093949243507</v>
       </c>
       <c r="N34" t="n">
-        <v>971.0369771777496</v>
+        <v>759.0249449603687</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145873</v>
+        <v>1033.38183257706</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649522</v>
+        <v>1264.910118928621</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250175</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.7257283273671</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400699</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045784</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.960275502747</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,13 +6962,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229836</v>
       </c>
       <c r="K37" t="n">
-        <v>278.5901810446697</v>
+        <v>278.5901810446688</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184696</v>
+        <v>442.7178209184686</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7257,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924223</v>
@@ -7436,22 +7436,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7497,7 +7497,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7573,19 +7573,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485496</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q43" t="n">
         <v>1092.622519868096</v>
@@ -7731,16 +7731,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7822,10 +7822,10 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
         <v>1098.202162476281</v>
@@ -7982,16 +7982,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>383.750382347415</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>399.5110292636024</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8061,22 +8061,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837489</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N3" t="n">
-        <v>610.8144732376605</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>183.630508041353</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>210.7551798924874</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>305.2720051970421</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837489</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N6" t="n">
-        <v>122.3638814211824</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>183.630508041353</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8462,16 +8462,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>540.0265064010113</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8538,10 +8538,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>454.5321323046934</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095482</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8772,13 +8772,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>510.5662141339224</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>264.4640783312027</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,25 +9006,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>464.9323088406971</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,10 +9249,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>691.2645480167034</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10437,7 +10437,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10905,22 +10905,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>177.2623988786017</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11379,19 +11379,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>576.0417294606771</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344422</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>132.3184324039112</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>61.34511236879293</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177841</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>49.67726212785121</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>60.6851687145609</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>156.4186008009661</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001147</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>242.3658783593636</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>189.7366275945445</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993869</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177841</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465753</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>11.66914328703759</v>
       </c>
       <c r="I16" t="n">
-        <v>40.92797409638241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1046175.487338103</v>
+        <v>1044671.618303702</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1046175.487338103</v>
+        <v>1044671.618303702</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>940996.0937949865</v>
+        <v>940996.0937949866</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>940996.0937949865</v>
+        <v>940996.0937949866</v>
       </c>
     </row>
     <row r="7">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>270498.267140035</v>
+        <v>270498.2671400351</v>
       </c>
       <c r="C2" t="n">
         <v>270498.2671400351</v>
       </c>
       <c r="D2" t="n">
-        <v>270498.2671400351</v>
+        <v>270498.2671400352</v>
       </c>
       <c r="E2" t="n">
         <v>239038.535136601</v>
       </c>
       <c r="F2" t="n">
-        <v>239038.5351366012</v>
+        <v>239038.5351366013</v>
       </c>
       <c r="G2" t="n">
         <v>270498.2671400351</v>
       </c>
       <c r="H2" t="n">
-        <v>270498.2671400351</v>
+        <v>270498.2671400352</v>
       </c>
       <c r="I2" t="n">
         <v>270498.2671400352</v>
       </c>
       <c r="J2" t="n">
+        <v>270498.2671400355</v>
+      </c>
+      <c r="K2" t="n">
         <v>270498.2671400354</v>
       </c>
-      <c r="K2" t="n">
-        <v>270498.2671400355</v>
-      </c>
       <c r="L2" t="n">
-        <v>270498.2671400354</v>
+        <v>270498.2671400351</v>
       </c>
       <c r="M2" t="n">
+        <v>270498.2671400351</v>
+      </c>
+      <c r="N2" t="n">
+        <v>270498.2671400353</v>
+      </c>
+      <c r="O2" t="n">
         <v>270498.2671400352</v>
-      </c>
-      <c r="N2" t="n">
-        <v>270498.2671400351</v>
-      </c>
-      <c r="O2" t="n">
-        <v>270498.2671400351</v>
       </c>
       <c r="P2" t="n">
         <v>270498.2671400352</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401362</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668196</v>
+        <v>47425.32553668199</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.24177539687</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962297</v>
+        <v>43252.5244708112</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489512</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489512</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26436,7 +26436,7 @@
         <v>186364.8769761036</v>
       </c>
       <c r="I4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="J4" t="n">
         <v>187115.3694404867</v>
@@ -26445,19 +26445,19 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="N4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="O4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="P4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,7 +26479,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
@@ -26488,7 +26488,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551964</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-199945.5933407858</v>
+        <v>-195293.3737196107</v>
       </c>
       <c r="C6" t="n">
-        <v>-17740.64504892987</v>
+        <v>-21434.71668555569</v>
       </c>
       <c r="D6" t="n">
-        <v>-25485.22575255032</v>
+        <v>-33221.51497594191</v>
       </c>
       <c r="E6" t="n">
-        <v>-64876.00652180545</v>
+        <v>-65085.73806849497</v>
       </c>
       <c r="F6" t="n">
-        <v>47246.55495223933</v>
+        <v>47036.82340554983</v>
       </c>
       <c r="G6" t="n">
-        <v>-21461.70468827017</v>
+        <v>-21461.70468827011</v>
       </c>
       <c r="H6" t="n">
-        <v>25963.6208484119</v>
+        <v>25963.62084841199</v>
       </c>
       <c r="I6" t="n">
+        <v>25963.62084841199</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-180562.0115942999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>19723.85244562924</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-39507.57369946452</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-17288.90362239938</v>
+      </c>
+      <c r="N6" t="n">
         <v>25963.62084841204</v>
       </c>
-      <c r="J6" t="n">
-        <v>-187078.2967488734</v>
-      </c>
-      <c r="K6" t="n">
-        <v>19723.85244562933</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-35458.73648899192</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-16237.20861121098</v>
-      </c>
-      <c r="N6" t="n">
-        <v>25963.62084841193</v>
-      </c>
       <c r="O6" t="n">
-        <v>-1804.073194359284</v>
+        <v>-1804.073194359225</v>
       </c>
       <c r="P6" t="n">
-        <v>25963.62084841199</v>
+        <v>25963.62084841201</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,7 +26808,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014437</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443782</v>
@@ -26817,7 +26817,7 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660693</v>
+        <v>78.07030221924609</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551342</v>
+        <v>17.58004954287435</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.3622249971643</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407277</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>228.7272727311388</v>
+        <v>302.2103438938544</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>9.963768703235502</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>124.5704364758571</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>90.47296222541929</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>9.495244038962198</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>344.7077666376948</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>95.12965858781422</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27625,16 +27625,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27704,10 +27704,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343642</v>
       </c>
       <c r="G6" t="n">
-        <v>48.8699187027036</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>47.99895431236038</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27828,7 +27828,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>205.8435382084967</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27837,10 +27837,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>179.6772992579286</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>71.6919341185183</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28023,16 +28023,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>195.9350014485278</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>24.04094380275529</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28743,16 +28743,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668725</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.636002634528154</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28980,11 +28980,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>35.71049010668768</v>
+      </c>
+      <c r="K22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.01250026485194</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,23 +29217,23 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,19 +29296,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901215</v>
+        <v>86.65052755599527</v>
       </c>
       <c r="O26" t="n">
         <v>93.99127447431646</v>
@@ -29317,10 +29317,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431646</v>
@@ -29469,7 +29469,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="P28" t="n">
         <v>93.99127447431646</v>
@@ -29536,28 +29536,28 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599572</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>86.27291196566466</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>43.495096831598</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455031183</v>
       </c>
       <c r="O34" t="n">
-        <v>18.714468612541</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30165,10 +30165,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>35.71049010668719</v>
+      </c>
+      <c r="K37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K37" t="n">
-        <v>35.71049010668817</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30402,10 +30402,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>28.01250026485211</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30414,19 +30414,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30645,22 +30645,22 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>128.2979821082779</v>
@@ -30894,13 +30894,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>128.2979821082783</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>128.2979821082783</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34702,16 +34702,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>230.5022126169233</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>250.3925379258183</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34781,22 +34781,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N3" t="n">
-        <v>525.4423603834939</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>90.94294915246407</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>93.07534195014132</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>155.7081677729457</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N6" t="n">
-        <v>36.99176856701577</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>90.94294915246407</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>390.9080150632272</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>362.1450102553815</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35492,13 +35492,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>425.1941012797557</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>173.4759251752887</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>372.2447499518083</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,10 +35969,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634528183</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565481</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36124,7 +36124,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634528606</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.46926427500442</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36528,7 +36528,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039233</v>
+        <v>619.7932383009064</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113952</v>
       </c>
       <c r="P28" t="n">
         <v>215.0783106122746</v>
@@ -36832,28 +36832,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101042</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>619.7932383009069</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>247.8874524576761</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.8908014987991</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044897</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>619.4156227105758</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>395.1996343381857</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273765</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791186</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>261.8338889252706</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496199</v>
+        <v>277.1281693097889</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634528118</v>
       </c>
       <c r="K37" t="n">
-        <v>118.3721477934981</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37625,22 +37625,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516621</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,7 +37710,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37941,7 +37941,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37956,7 +37956,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R43" t="n">
         <v>5.636002634529095</v>
@@ -38099,19 +38099,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>483.6546074113651</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184307</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634529554</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
